--- a/topic03-microsoft-excel/unit-4-1/archive-4/exercise-4/Exercises-4.xlsx
+++ b/topic03-microsoft-excel/unit-4-1/archive-4/exercise-4/Exercises-4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maireadmeagher/Documents/GitRepos/ICT-25/topicxx-wip/unit-4-labs-week-8/unit-1-resources/archive-4/exercise-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maireadmeagher/Documents/GitRepos/ICT-25/topic03-microsoft-excel/unit-4-1/archive-4/exercise-4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD7FA6CD-064A-894B-843D-347391A893C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE075D2C-0495-7740-8F07-D2D5D885F702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="780" windowWidth="23160" windowHeight="17740" tabRatio="749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3520" yWindow="780" windowWidth="23160" windowHeight="17740" tabRatio="749" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1- Stability Testing" sheetId="3" r:id="rId1"/>
@@ -603,6 +603,147 @@
   </si>
   <si>
     <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Insert the correct axis labels.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Insert the following chart title: “1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Derivative Plot of a Strong Acid (HCl) with a Strong Base (NaOH)”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Determine the equivalence point using arrows to display this on the graph.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In cells G9 and G11 type in the equivalence points (i.e. volume of base required for the </t>
+    </r>
+  </si>
+  <si>
+    <t>neutralisation of the hydrochloric acid) determined from the pH Titration Curve and the 1st Derivative Plot.</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>video here : https://youtu.be/KkG-Wzdhuwg?si=JABQoxwwzK53gkno</t>
+  </si>
+  <si>
+    <t>video here: https://youtu.be/WqC3o5KXvtc?si=f2Eo2k5KoRt06ZX-</t>
+  </si>
+  <si>
+    <t>video here: https://youtu.be/m-z1RYoveQc?si=u3u_G0NitBu1kO0M</t>
+  </si>
+  <si>
+    <t>video here: https://youtu.be/aGmTs3mxZgQ?si=StC09phQh3t-Mqyk</t>
+  </si>
+  <si>
+    <t>video here: https://youtu.be/kgPNYMT8CrA?si=XCBi3pwesD9CxhfG</t>
+  </si>
+  <si>
+    <t>Instructions: Calculate the values above using absolute references when appropriate</t>
+  </si>
+  <si>
+    <r>
       <t>6.</t>
     </r>
     <r>
@@ -633,21 +774,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>XY scatter chart with smooth lines of pH versus ∆pH/∆V.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7.</t>
+      <t>XY scatter chart with smooth lines of Volume (V</t>
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">     </t>
+      <t>B</t>
     </r>
     <r>
       <rPr>
@@ -657,125 +793,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Insert the correct axis labels.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Insert the following chart title: “1</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>st</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Derivative Plot of a Strong Acid (HCl) with a Strong Base (NaOH)”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Determine the equivalence point using arrows to display this on the graph.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">In cells G9 and G11 type in the equivalence points (i.e. volume of base required for the </t>
-    </r>
-  </si>
-  <si>
-    <t>neutralisation of the hydrochloric acid) determined from the pH Titration Curve and the 1st Derivative Plot.</t>
-  </si>
-  <si>
-    <t>Instructions</t>
-  </si>
-  <si>
-    <t>video here : https://youtu.be/KkG-Wzdhuwg?si=JABQoxwwzK53gkno</t>
-  </si>
-  <si>
-    <t>video here: https://youtu.be/WqC3o5KXvtc?si=f2Eo2k5KoRt06ZX-</t>
-  </si>
-  <si>
-    <t>video here: https://youtu.be/m-z1RYoveQc?si=u3u_G0NitBu1kO0M</t>
-  </si>
-  <si>
-    <t>video here: https://youtu.be/aGmTs3mxZgQ?si=StC09phQh3t-Mqyk</t>
-  </si>
-  <si>
-    <t>video here: https://youtu.be/kgPNYMT8CrA?si=XCBi3pwesD9CxhfG</t>
-  </si>
-  <si>
-    <t>Instructions: Calculate the values above using absolute references when appropriate</t>
+      <t xml:space="preserve"> (cm3)) versus ∆pH/∆V.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -790,7 +809,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1123,6 +1142,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="23">
     <fill>
@@ -1610,6 +1635,14 @@
     </xf>
     <xf numFmtId="21" fontId="41" fillId="0" borderId="3" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="41" fillId="0" borderId="3" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1640,6 +1673,12 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1649,20 +1688,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="70">
     <cellStyle name="Accent1 - 20%" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3135,7 +3160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
@@ -3153,24 +3178,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
     </row>
     <row r="2" spans="1:16" ht="14" thickBot="1"/>
     <row r="3" spans="1:16" ht="16" customHeight="1" thickBot="1">
@@ -3178,25 +3203,25 @@
         <v>1.96</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
       <c r="I3" s="12"/>
       <c r="J3" s="15">
         <v>1.65</v>
       </c>
       <c r="K3" s="12"/>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
     </row>
     <row r="4" spans="1:16" ht="16" customHeight="1">
       <c r="B4" s="12"/>
@@ -3236,7 +3261,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="16" customHeight="1">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="55" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="13">
@@ -3248,7 +3273,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="55" t="s">
         <v>2</v>
       </c>
       <c r="K5" s="13">
@@ -3261,7 +3286,7 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:16" ht="16" customHeight="1">
-      <c r="B6" s="51"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="13">
         <v>0.2</v>
       </c>
@@ -3271,7 +3296,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="51"/>
+      <c r="J6" s="55"/>
       <c r="K6" s="13">
         <v>0.2</v>
       </c>
@@ -3282,7 +3307,7 @@
       <c r="P6" s="14"/>
     </row>
     <row r="7" spans="1:16" ht="16" customHeight="1">
-      <c r="B7" s="51"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="13">
         <v>0.3</v>
       </c>
@@ -3292,7 +3317,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="51"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="13">
         <v>0.3</v>
       </c>
@@ -3303,7 +3328,7 @@
       <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:16" ht="16" customHeight="1">
-      <c r="B8" s="51"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="13">
         <v>0.4</v>
       </c>
@@ -3313,7 +3338,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="51"/>
+      <c r="J8" s="55"/>
       <c r="K8" s="13">
         <v>0.4</v>
       </c>
@@ -3324,7 +3349,7 @@
       <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16" ht="16" customHeight="1">
-      <c r="B9" s="51"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="13">
         <v>0.5</v>
       </c>
@@ -3334,7 +3359,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="51"/>
+      <c r="J9" s="55"/>
       <c r="K9" s="13">
         <v>0.5</v>
       </c>
@@ -3345,7 +3370,7 @@
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" ht="16" customHeight="1">
-      <c r="B10" s="51"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="13">
         <v>0.6</v>
       </c>
@@ -3355,7 +3380,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="51"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="13">
         <v>0.6</v>
       </c>
@@ -3366,7 +3391,7 @@
       <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:16" ht="16" customHeight="1">
-      <c r="B11" s="51"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="13">
         <v>0.7</v>
       </c>
@@ -3376,7 +3401,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="51"/>
+      <c r="J11" s="55"/>
       <c r="K11" s="13">
         <v>0.7</v>
       </c>
@@ -3387,7 +3412,7 @@
       <c r="P11" s="14"/>
     </row>
     <row r="12" spans="1:16" ht="16" customHeight="1">
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="13">
         <v>0.8</v>
       </c>
@@ -3397,7 +3422,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="51"/>
+      <c r="J12" s="55"/>
       <c r="K12" s="13">
         <v>0.8</v>
       </c>
@@ -3408,7 +3433,7 @@
       <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:16" ht="16" customHeight="1">
-      <c r="B13" s="51"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="13">
         <v>0.9</v>
       </c>
@@ -3418,7 +3443,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="51"/>
+      <c r="J13" s="55"/>
       <c r="K13" s="13">
         <v>0.9</v>
       </c>
@@ -3429,7 +3454,7 @@
       <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:16" ht="16" customHeight="1">
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="13">
         <v>1</v>
       </c>
@@ -3439,7 +3464,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="51"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="13">
         <v>1</v>
       </c>
@@ -3450,7 +3475,7 @@
       <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:16" ht="16" customHeight="1">
-      <c r="B15" s="51"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="13">
         <v>2</v>
       </c>
@@ -3460,7 +3485,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="51"/>
+      <c r="J15" s="55"/>
       <c r="K15" s="13">
         <v>2</v>
       </c>
@@ -3471,7 +3496,7 @@
       <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:16" ht="16" customHeight="1">
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="13">
         <v>3</v>
       </c>
@@ -3481,7 +3506,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="12"/>
-      <c r="J16" s="51"/>
+      <c r="J16" s="55"/>
       <c r="K16" s="13">
         <v>3</v>
       </c>
@@ -3492,28 +3517,28 @@
       <c r="P16" s="14"/>
     </row>
     <row r="32" spans="6:13">
-      <c r="F32" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
+      <c r="F32" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
     </row>
     <row r="39" spans="14:14">
-      <c r="N39" s="68"/>
+      <c r="N39" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:P1"/>
     <mergeCell ref="F32:M32"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="B5:B16"/>
     <mergeCell ref="J5:J16"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3543,43 +3568,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="12" customHeight="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="18">
@@ -3767,7 +3792,7 @@
     </row>
     <row r="18" spans="7:7">
       <c r="G18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3795,12 +3820,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3808,10 +3833,10 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -3858,7 +3883,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3979,30 +4004,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="61"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="46"/>
@@ -4019,7 +4044,7 @@
         <v>17</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4314,40 +4339,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="63"/>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:15" ht="16">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:15" ht="16">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:15" ht="16">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
       <c r="E6" s="1" t="s">
@@ -4383,7 +4408,7 @@
         <v>2.9</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16">
@@ -4521,8 +4546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4550,52 +4575,52 @@
       <c r="A2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
       <c r="O3" s="64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
       <c r="O4" s="65"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="O5" s="63" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="O5" s="50" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17">
-      <c r="O6" s="63" t="s">
+      <c r="O6" s="50" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4610,12 +4635,12 @@
         <v>25</v>
       </c>
       <c r="D7" s="23"/>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="O7" s="63" t="s">
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="O7" s="50" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4631,7 +4656,7 @@
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="O8" s="63" t="s">
+      <c r="O8" s="50" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4642,37 +4667,31 @@
       <c r="B9" s="40">
         <v>1.05</v>
       </c>
-      <c r="C9" s="41">
-        <f>(B9-B8)/(A9-A8)</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
+      <c r="C9" s="41"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="42"/>
-      <c r="O9" s="63" t="s">
+      <c r="O9" s="50" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16">
+    <row r="10" spans="1:15" ht="17">
       <c r="A10" s="24">
         <v>4</v>
       </c>
       <c r="B10" s="40">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C10" s="41">
-        <f t="shared" ref="C10:C28" si="0">(B10-B9)/(A10-A9)</f>
-        <v>2.5000000000000022E-2</v>
-      </c>
+      <c r="C10" s="41"/>
       <c r="D10" s="23"/>
       <c r="E10" s="43"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="O10" s="63" t="s">
-        <v>46</v>
+      <c r="O10" s="50" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1">
@@ -4682,18 +4701,15 @@
       <c r="B11" s="40">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C11" s="41">
-        <f t="shared" si="0"/>
-        <v>2.4999999999999911E-2</v>
-      </c>
+      <c r="C11" s="41"/>
       <c r="D11" s="23"/>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="62"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="42"/>
-      <c r="O11" s="63" t="s">
-        <v>47</v>
+      <c r="O11" s="50" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17">
@@ -4703,16 +4719,13 @@
       <c r="B12" s="40">
         <v>1.18</v>
       </c>
-      <c r="C12" s="41">
-        <f t="shared" si="0"/>
-        <v>1.5000000000000013E-2</v>
-      </c>
+      <c r="C12" s="41"/>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
-      <c r="O12" s="63" t="s">
-        <v>48</v>
+      <c r="O12" s="50" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="16">
@@ -4722,16 +4735,13 @@
       <c r="B13" s="40">
         <v>1.22</v>
       </c>
-      <c r="C13" s="41">
-        <f t="shared" si="0"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
+      <c r="C13" s="41"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
-      <c r="O13" s="63" t="s">
-        <v>49</v>
+      <c r="O13" s="50" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16">
@@ -4741,16 +4751,13 @@
       <c r="B14" s="40">
         <v>1.28</v>
       </c>
-      <c r="C14" s="41">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
+      <c r="C14" s="41"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
-      <c r="O14" s="63" t="s">
-        <v>50</v>
+      <c r="O14" s="50" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="16">
@@ -4760,16 +4767,13 @@
       <c r="B15" s="40">
         <v>1.33</v>
       </c>
-      <c r="C15" s="41">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000022E-2</v>
-      </c>
+      <c r="C15" s="41"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
-      <c r="O15" s="63" t="s">
-        <v>51</v>
+      <c r="O15" s="50" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="16">
@@ -4779,10 +4783,7 @@
       <c r="B16" s="40">
         <v>1.38</v>
       </c>
-      <c r="C16" s="41">
-        <f t="shared" si="0"/>
-        <v>2.4999999999999911E-2</v>
-      </c>
+      <c r="C16" s="41"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -4795,10 +4796,7 @@
       <c r="B17" s="40">
         <v>1.44</v>
       </c>
-      <c r="C17" s="41">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
+      <c r="C17" s="41"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -4811,10 +4809,7 @@
       <c r="B18" s="40">
         <v>1.45</v>
       </c>
-      <c r="C18" s="41">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000044E-3</v>
-      </c>
+      <c r="C18" s="41"/>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -4827,10 +4822,7 @@
       <c r="B19" s="40">
         <v>1.48</v>
       </c>
-      <c r="C19" s="41">
-        <f t="shared" si="0"/>
-        <v>1.5000000000000013E-2</v>
-      </c>
+      <c r="C19" s="41"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -4843,10 +4835,7 @@
       <c r="B20" s="40">
         <v>1.57</v>
       </c>
-      <c r="C20" s="41">
-        <f t="shared" si="0"/>
-        <v>9.000000000000008E-2</v>
-      </c>
+      <c r="C20" s="41"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -4859,10 +4848,7 @@
       <c r="B21" s="40">
         <v>1.98</v>
       </c>
-      <c r="C21" s="41">
-        <f t="shared" si="0"/>
-        <v>0.40999999999999992</v>
-      </c>
+      <c r="C21" s="41"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
@@ -4875,10 +4861,7 @@
       <c r="B22" s="40">
         <v>7.1</v>
       </c>
-      <c r="C22" s="41">
-        <f t="shared" si="0"/>
-        <v>5.1199999999999992</v>
-      </c>
+      <c r="C22" s="41"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -4891,16 +4874,13 @@
       <c r="B23" s="40">
         <v>10.78</v>
       </c>
-      <c r="C23" s="41">
-        <f t="shared" si="0"/>
-        <v>3.6799999999999997</v>
-      </c>
+      <c r="C23" s="41"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
-      <c r="O23" s="66" t="s">
-        <v>53</v>
+      <c r="O23" s="51" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="16">
@@ -4910,10 +4890,7 @@
       <c r="B24" s="40">
         <v>11.58</v>
       </c>
-      <c r="C24" s="41">
-        <f t="shared" si="0"/>
-        <v>0.40000000000000036</v>
-      </c>
+      <c r="C24" s="41"/>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -4926,10 +4903,7 @@
       <c r="B25" s="40">
         <v>11.78</v>
       </c>
-      <c r="C25" s="41">
-        <f t="shared" si="0"/>
-        <v>9.9999999999999645E-2</v>
-      </c>
+      <c r="C25" s="41"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
@@ -4942,10 +4916,7 @@
       <c r="B26" s="40">
         <v>11.84</v>
       </c>
-      <c r="C26" s="41">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000249E-2</v>
-      </c>
+      <c r="C26" s="41"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
@@ -4958,10 +4929,7 @@
       <c r="B27" s="40">
         <v>11.86</v>
       </c>
-      <c r="C27" s="41">
-        <f t="shared" si="0"/>
-        <v>9.9999999999997868E-3</v>
-      </c>
+      <c r="C27" s="41"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
@@ -4974,10 +4942,7 @@
       <c r="B28" s="40">
         <v>11.88</v>
       </c>
-      <c r="C28" s="41">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000675E-2</v>
-      </c>
+      <c r="C28" s="41"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
